--- a/01_Input/00_CO Validation/Syria - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Syria - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="240" documentId="11_FCFC9F3BE44C40EB042265FE58FA8307DC8FCB26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E570A6E-1018-4A44-AE50-FF5B47447773}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="11_FCFC9F3BE44C40EB042265FE58FA8307DC8FCB26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ED7ECCB-BD5C-42FC-95AF-383E24DCEA6F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="173">
   <si>
     <t>Project ID</t>
   </si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t>http://open.undp.org/projects/00113007</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t xml:space="preserve">Rehabilitation of Hydro Power Plant in Raqqa through the provision of the needed spare part and updated designes </t>
@@ -128,6 +128,9 @@
     <t>Renewable Energy</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t xml:space="preserve">Improve access to clean and safe water through the rehabilitation of wells and water supplies in Hassakeh </t>
   </si>
   <si>
@@ -190,6 +193,9 @@
   </si>
   <si>
     <t>Support the Irrigation Sector in Raqqa &amp; Deir Ezzor through rehabilitation of irrigation system and provsion of  transformers and generators and rehabilitation of electricity networks</t>
+  </si>
+  <si>
+    <t>Agricultural Services</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -226,6 +232,9 @@
     <t>Installation of a Solar System to provide the needed energy to the Dialysis department of the Comprehensive Clinics building in Daraa</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantum </t>
+  </si>
+  <si>
     <t># Number of beneficiaries per day (Kidney department)
 beneficiaries per month from the overall health services</t>
   </si>
@@ -234,9 +243,6 @@
   </si>
   <si>
     <t>Installation of 630 KVA transformers with the  rehabilitation of Low &amp; medium voltage electricity networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantum </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -308,6 +314,9 @@
     <t xml:space="preserve">Rehabilitation Of Electricty Netowrk </t>
   </si>
   <si>
+    <t>Electricity Infrastructure (km)</t>
+  </si>
+  <si>
     <t># Km of basic infrastructure ( Electricity Networks) rehabilitated/maintained.</t>
   </si>
   <si>
@@ -404,6 +413,9 @@
   </si>
   <si>
     <t xml:space="preserve">UNDP will support the rehabilitation of basic infrastructure and services for better and more qualitative access through the provision of the needed equipment for the solar system testing laboratory </t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t xml:space="preserve">#Amount of electricity delivered to the national grid
@@ -552,9 +564,6 @@
   </si>
   <si>
     <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
   </si>
   <si>
     <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
@@ -766,7 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +931,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1069,12 +1078,6 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1099,6 +1102,18 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,9 +1125,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1421,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B499D197-9D78-4609-91C7-A92D65A4542D}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1449,61 +1461,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="O1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="57" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="39"/>
@@ -1518,91 +1530,75 @@
       <c r="C2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="49">
-        <v>10446749</v>
-      </c>
-      <c r="E2" s="44" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="39"/>
+    </row>
+    <row r="3" spans="1:20" ht="183.75" customHeight="1">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-    </row>
-    <row r="3" spans="1:20" ht="183.75" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="51" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="49">
         <v>1255000</v>
       </c>
       <c r="E3" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="44">
-        <v>200</v>
-      </c>
+      <c r="G3" s="44"/>
       <c r="H3" s="44">
         <v>125</v>
       </c>
       <c r="I3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="45" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>27</v>
       </c>
       <c r="K3" s="42"/>
       <c r="L3" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="46"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52" t="s">
+      <c r="P3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
     </row>
     <row r="4" spans="1:20" ht="87" customHeight="1">
       <c r="A4" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>23</v>
+      <c r="C4" s="51" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="47">
         <v>1173000</v>
@@ -1625,31 +1621,31 @@
       </c>
       <c r="K4" s="42"/>
       <c r="L4" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
     </row>
     <row r="5" spans="1:20" ht="114.75" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>23</v>
+      <c r="C5" s="51" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="49">
         <v>267000</v>
@@ -1672,29 +1668,29 @@
       </c>
       <c r="K5" s="42"/>
       <c r="L5" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="48"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
     </row>
     <row r="6" spans="1:20" ht="151.5" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>23</v>
+      <c r="C6" s="51" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="49">
         <v>176000</v>
@@ -1717,29 +1713,29 @@
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="42"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52" t="s">
+      <c r="N6" s="50"/>
+      <c r="O6" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
     </row>
     <row r="7" spans="1:20" ht="138.75" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="53" t="s">
-        <v>23</v>
+      <c r="C7" s="51" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="49">
         <v>448545.9</v>
@@ -1762,123 +1758,123 @@
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="42"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52" t="s">
+      <c r="N7" s="50"/>
+      <c r="O7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
     </row>
     <row r="8" spans="1:20" ht="210.75" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="54">
+      <c r="C8" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="52">
         <v>4346204</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44">
         <v>18000</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="42"/>
       <c r="L8" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="42"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52" t="s">
+      <c r="N8" s="50"/>
+      <c r="O8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
     </row>
     <row r="9" spans="1:20" ht="150" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="49">
         <v>156000</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="64">
+        <v>30</v>
+      </c>
+      <c r="H9" s="58">
         <v>5.28E-2</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="42"/>
       <c r="L9" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="P9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
     </row>
     <row r="10" spans="1:20" ht="142.5" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D10" s="49">
         <v>125000</v>
@@ -1887,45 +1883,45 @@
         <v>39</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H10" s="44">
         <v>10000</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="42"/>
       <c r="L10" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="42"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52" t="s">
+      <c r="N10" s="50"/>
+      <c r="O10" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
     </row>
     <row r="11" spans="1:20" ht="120" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D11" s="49">
         <v>230000</v>
@@ -1934,480 +1930,480 @@
         <v>39</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H11" s="44">
         <v>10000</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="52" t="s">
+      <c r="P11" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
+      <c r="Q11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
     </row>
     <row r="12" spans="1:20" ht="174.75" customHeight="1">
       <c r="A12" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="49">
         <v>30000</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="44">
         <v>50</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="56">
+        <v>67</v>
+      </c>
+      <c r="K12" s="54">
         <v>1</v>
       </c>
       <c r="L12" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="42"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52" t="s">
+      <c r="N12" s="50"/>
+      <c r="O12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="52" t="s">
+      <c r="P12" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
+      <c r="Q12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:20" ht="60.75">
       <c r="A13" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D13" s="49">
         <v>50000</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H13" s="44">
         <v>1</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13" s="42"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52" t="s">
+      <c r="N13" s="50"/>
+      <c r="O13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="52" t="s">
+      <c r="P13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="S13" s="52" t="s">
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" s="50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="91.5">
+    <row r="14" spans="1:20" ht="60.75">
       <c r="A14" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="49">
         <v>1500000</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H14" s="44">
         <v>6</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="42"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52" t="s">
+      <c r="P14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-    </row>
-    <row r="15" spans="1:20" ht="106.5">
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+    </row>
+    <row r="15" spans="1:20" ht="60.75">
       <c r="A15" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D15" s="49">
         <v>60000</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="44">
         <v>100</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" s="42"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52" t="s">
+      <c r="N15" s="50"/>
+      <c r="O15" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="52" t="s">
+      <c r="P15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
     </row>
     <row r="16" spans="1:20" ht="147.75" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D16" s="49">
         <v>300000</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H16" s="44">
         <v>8</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="52" t="s">
+      <c r="P16" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
     </row>
     <row r="17" spans="1:19" ht="147.75" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D17" s="49">
         <v>50000</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H17" s="44">
         <v>1</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52" t="s">
+      <c r="N17" s="50"/>
+      <c r="O17" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="S17" s="52" t="s">
-        <v>93</v>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17" s="50" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="107.25" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D18" s="49">
         <v>200000</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="44">
         <v>20</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K18" s="42"/>
       <c r="L18" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18" s="42"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52" t="s">
+      <c r="N18" s="50"/>
+      <c r="O18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="52" t="s">
+      <c r="P18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
     </row>
     <row r="19" spans="1:19" ht="116.25" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D19" s="49">
         <v>50000</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H19" s="44">
         <v>5</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K19" s="42"/>
       <c r="L19" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
+      <c r="P19" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
     </row>
     <row r="20" spans="1:19" ht="121.5">
       <c r="A20" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="D20" s="49">
         <v>50000</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H20" s="44">
         <v>50</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K20" s="42"/>
       <c r="L20" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M20" s="42"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52" t="s">
+      <c r="N20" s="50"/>
+      <c r="O20" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="52" t="s">
+      <c r="P20" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="7"/>
       <c r="D21" s="34"/>
       <c r="E21" s="7"/>
@@ -2557,24 +2553,24 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S20" xr:uid="{AC0E90AD-FBC1-48FF-8859-150693B41B3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S20" xr:uid="{AC0E90AD-FBC1-48FF-8859-150693B41B3C}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R20" xr:uid="{71F55D89-6494-4C9F-AB37-593295E901CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R20" xr:uid="{71F55D89-6494-4C9F-AB37-593295E901CA}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q20" xr:uid="{6F6749AF-7C4F-4E1C-A69D-BFDF76693EA5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q20" xr:uid="{6F6749AF-7C4F-4E1C-A69D-BFDF76693EA5}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P20" xr:uid="{388EDACA-6799-4547-84B1-0357DD5FB452}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P20" xr:uid="{388EDACA-6799-4547-84B1-0357DD5FB452}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O20" xr:uid="{E1EF0893-288E-45FC-8840-A8F72E0F3297}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O20" xr:uid="{E1EF0893-288E-45FC-8840-A8F72E0F3297}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5730B45A-74A4-4418-8024-CA020FFC217E}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{746299F1-141A-4537-BA6B-2AEB999C67F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2585,7 +2581,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2678,19 +2674,19 @@
         <v>10446749</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="37"/>
@@ -2699,22 +2695,22 @@
     </row>
     <row r="3" spans="1:20" ht="275.25">
       <c r="A3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="19">
         <v>1255000</v>
       </c>
       <c r="E3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="20">
         <v>200</v>
@@ -2723,32 +2719,32 @@
         <v>125</v>
       </c>
       <c r="I3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>27</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="23"/>
       <c r="O3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="106.5">
       <c r="A4" s="24" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="27">
         <v>1173000</v>
@@ -2761,7 +2757,7 @@
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>34</v>
@@ -2771,10 +2767,10 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>36</v>
@@ -2785,13 +2781,13 @@
     </row>
     <row r="5" spans="1:20" ht="152.25">
       <c r="A5" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="19">
         <v>267000</v>
@@ -2814,7 +2810,7 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="31"/>
       <c r="O5" s="8" t="s">
@@ -2826,13 +2822,13 @@
     </row>
     <row r="6" spans="1:20" ht="213">
       <c r="A6" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="19">
         <v>176000</v>
@@ -2845,7 +2841,7 @@
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>45</v>
@@ -2855,7 +2851,7 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="7"/>
       <c r="O6" s="8" t="s">
@@ -2867,13 +2863,13 @@
     </row>
     <row r="7" spans="1:20" ht="229.5">
       <c r="A7" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="19">
         <v>448545.9</v>
@@ -2896,7 +2892,7 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7"/>
       <c r="O7" s="8" t="s">
@@ -2908,13 +2904,13 @@
     </row>
     <row r="8" spans="1:20" ht="321">
       <c r="A8" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="36">
         <v>4346204</v>
@@ -2923,21 +2919,21 @@
         <v>32</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7"/>
       <c r="O8" s="8" t="s">
@@ -2949,13 +2945,13 @@
     </row>
     <row r="9" spans="1:20" ht="183">
       <c r="A9" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="19">
         <v>156000</v>
@@ -2964,26 +2960,26 @@
         <v>39</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>36</v>
@@ -2994,13 +2990,13 @@
     </row>
     <row r="10" spans="1:20" ht="198">
       <c r="A10" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="19">
         <v>125000</v>
@@ -3009,23 +3005,23 @@
         <v>39</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="7"/>
       <c r="O10" s="8" t="s">
@@ -3037,13 +3033,13 @@
     </row>
     <row r="11" spans="1:20" ht="167.25">
       <c r="A11" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="19">
         <v>230000</v>
@@ -3052,23 +3048,23 @@
         <v>39</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="40"/>
       <c r="O11" s="8" t="s">
@@ -3078,45 +3074,45 @@
         <v>39</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="244.5">
       <c r="A12" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="19">
         <v>30000</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="21">
         <v>50</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="41">
         <v>1</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="7"/>
       <c r="O12" s="8" t="s">
@@ -3126,43 +3122,43 @@
         <v>37</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="60.75">
       <c r="A13" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="19">
         <v>50000</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H13" s="21">
         <v>1</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13" s="7"/>
       <c r="O13" s="8" t="s">
@@ -3172,7 +3168,7 @@
         <v>37</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>37</v>
@@ -3180,81 +3176,81 @@
     </row>
     <row r="14" spans="1:20" ht="91.5">
       <c r="A14" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="19">
         <v>1500000</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H14" s="21">
         <v>6</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="7"/>
       <c r="O14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="106.5">
       <c r="A15" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="19">
         <v>60000</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="21">
         <v>100</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" s="7"/>
       <c r="O15" s="8" t="s">
@@ -3266,13 +3262,13 @@
     </row>
     <row r="16" spans="1:20" ht="152.25">
       <c r="A16" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="19">
         <v>300000</v>
@@ -3281,26 +3277,26 @@
         <v>39</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>36</v>
@@ -3311,38 +3307,38 @@
     </row>
     <row r="17" spans="1:19" ht="213">
       <c r="A17" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="19">
         <v>50000</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H17" s="21">
         <v>1</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17" s="7"/>
       <c r="O17" s="8" t="s">
@@ -3352,46 +3348,46 @@
         <v>37</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="137.25">
       <c r="A18" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="19">
         <v>200000</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="21">
         <v>20</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18" s="7"/>
       <c r="O18" s="8" t="s">
@@ -3403,83 +3399,83 @@
     </row>
     <row r="19" spans="1:19" ht="91.5">
       <c r="A19" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="19">
         <v>50000</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>36</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="121.5">
       <c r="A20" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="19">
         <v>50000</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H20" s="21">
         <v>50</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M20" s="7"/>
       <c r="O20" s="8" t="s">
@@ -3666,27 +3662,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="3" width="20.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31" style="8" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="33"/>
-    <col min="11" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="4" width="20.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="31" style="8" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="33"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3694,701 +3690,669 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" ht="30.75">
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="30.75">
       <c r="A2" s="9">
         <v>113007</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="12">
         <v>10446749</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="275.25">
+      <c r="A3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="275.25">
-      <c r="A3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="19">
+        <v>1255000</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="19">
-        <v>1255000</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>118</v>
+      <c r="G3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="I3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="106.5">
-      <c r="A4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="1:14" ht="106.5">
+      <c r="A4" s="24"/>
+      <c r="C4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="27">
         <v>1173000</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>119</v>
-      </c>
       <c r="G4" s="28" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="152.25">
-      <c r="A5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="152.25">
+      <c r="A5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="19">
         <v>267000</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>122</v>
+      <c r="G5" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="K5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" ht="213">
-      <c r="A6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="M5" s="7"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" ht="213">
+      <c r="A6" s="16"/>
+      <c r="C6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="19">
         <v>176000</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>123</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="I6" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="K6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="229.5">
-      <c r="A7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="229.5">
+      <c r="A7" s="16"/>
+      <c r="C7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="19">
         <v>448545.9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="G7" s="21" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="I7" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="K7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="321">
-      <c r="A8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="321">
+      <c r="A8" s="16"/>
+      <c r="C8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="36">
+      <c r="D8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="36">
         <v>4346204</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>127</v>
-      </c>
       <c r="G8" s="21" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="183">
-      <c r="A9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="183">
+      <c r="A9" s="16"/>
+      <c r="C9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="19">
         <v>156000</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="198">
-      <c r="A10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="198">
+      <c r="A10" s="16"/>
+      <c r="C10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="19">
         <v>125000</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>129</v>
-      </c>
       <c r="G10" s="21" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="167.25">
-      <c r="A11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="167.25">
+      <c r="A11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="19">
         <v>230000</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="G11" s="21" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="32" t="s">
+        <v>67</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="244.5">
-      <c r="A12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="244.5">
+      <c r="A12" s="16"/>
+      <c r="C12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="19">
         <v>30000</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>70</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>67</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="60.75">
-      <c r="A13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="60.75">
+      <c r="A13" s="16"/>
+      <c r="C13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="19">
         <v>50000</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="F13" s="21" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" ht="91.5">
-      <c r="A14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="91.5">
+      <c r="A14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="19">
         <v>1500000</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>135</v>
-      </c>
       <c r="G14" s="21" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" ht="106.5">
-      <c r="A15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="106.5">
+      <c r="A15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="19">
         <v>60000</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>82</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" ht="152.25">
-      <c r="A16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="19">
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="152.25">
+      <c r="A16" s="16"/>
+      <c r="C16" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="19">
         <v>300000</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="G16" s="21" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="213">
-      <c r="A17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="213">
+      <c r="A17" s="16"/>
+      <c r="C17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="19">
         <v>50000</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>73</v>
-      </c>
       <c r="F17" s="21" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="137.25">
-      <c r="A18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="137.25">
+      <c r="A18" s="16"/>
+      <c r="C18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="19">
+        <v>200000</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="19">
-        <v>200000</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" ht="91.5">
-      <c r="A19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="91.5">
+      <c r="A19" s="16"/>
+      <c r="C19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="19">
         <v>50000</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="F19" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" ht="121.5">
-      <c r="A20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="121.5">
+      <c r="A20" s="16"/>
+      <c r="C20" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="19">
         <v>50000</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>82</v>
-      </c>
       <c r="F20" s="21" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4398,12 +4362,13 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -4413,27 +4378,29 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4443,12 +4410,13 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4458,12 +4426,13 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -4473,12 +4442,13 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -4488,12 +4458,13 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -4503,12 +4474,13 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -4518,12 +4490,13 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -4533,14 +4506,15 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="15"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{881AC9C2-6E94-4F48-9437-E645830298AF}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{881AC9C2-6E94-4F48-9437-E645830298AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4561,160 +4535,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="60" t="s">
-        <v>143</v>
+      <c r="A2" s="62" t="s">
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="60"/>
+      <c r="A4" s="62"/>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="61" t="s">
-        <v>148</v>
+      <c r="A5" s="63" t="s">
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="63"/>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="63"/>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="62" t="s">
-        <v>157</v>
+      <c r="A10" s="64" t="s">
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="64"/>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="63" t="s">
-        <v>162</v>
+      <c r="A12" s="65" t="s">
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4729,48 +4703,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Abir Achi</DisplayName>
-        <AccountId>1342</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Abir Zeno</DisplayName>
-        <AccountId>1994</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Amal Aldababseh</DisplayName>
-        <AccountId>1045</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -5019,14 +4951,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Abir Achi</DisplayName>
+        <AccountId>1342</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Abir Zeno</DisplayName>
+        <AccountId>1994</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Amal Aldababseh</DisplayName>
+        <AccountId>1045</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5A87125-55F7-489C-8135-9EF2D259E2AA}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B901AB7-47B7-429F-83A5-F7895DD912EA}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4BFD9EE-4F0D-4647-B161-5B4B1F915071}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5A87125-55F7-489C-8135-9EF2D259E2AA}"/>
 </file>
--- a/01_Input/00_CO Validation/Syria - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Syria - Energy Projects.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/SEH/Energy-Moonshot-Tracker/01_Input/00_CO Validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B3F25B-DF64-7246-B180-C9559121173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="11_FCFC9F3BE44C40EB042265FE58FA8307DC8FCB26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45805FB-B32D-40F6-978C-8553A73C23FB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -677,7 +672,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,7 +684,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,7 +743,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -761,21 +754,19 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1530,36 +1521,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B499D197-9D78-4609-91C7-A92D65A4542D}">
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="5"/>
-    <col min="2" max="3" width="20.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="56.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="30"/>
-    <col min="11" max="11" width="11.1640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="5" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="3" width="20.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="56.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="30"/>
+    <col min="11" max="11" width="11.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="30.75">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="45.75">
       <c r="A2" s="39">
         <v>113007</v>
       </c>
@@ -1668,7 +1659,7 @@
       <c r="AE2" s="58"/>
       <c r="AF2" s="58"/>
     </row>
-    <row r="3" spans="1:32" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="183.75" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
@@ -1727,7 +1718,7 @@
       <c r="AE3" s="47"/>
       <c r="AF3" s="47"/>
     </row>
-    <row r="4" spans="1:32" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="87" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>34</v>
       </c>
@@ -1789,7 +1780,7 @@
       <c r="AE4" s="47"/>
       <c r="AF4" s="47"/>
     </row>
-    <row r="5" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="114.75" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>34</v>
       </c>
@@ -1851,7 +1842,7 @@
       <c r="AE5" s="47"/>
       <c r="AF5" s="47"/>
     </row>
-    <row r="6" spans="1:32" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="151.5" customHeight="1">
       <c r="A6" s="39" t="s">
         <v>34</v>
       </c>
@@ -1911,7 +1902,7 @@
       <c r="AE6" s="47"/>
       <c r="AF6" s="47"/>
     </row>
-    <row r="7" spans="1:32" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="138.75" customHeight="1">
       <c r="A7" s="39" t="s">
         <v>34</v>
       </c>
@@ -1971,7 +1962,7 @@
       <c r="AE7" s="47"/>
       <c r="AF7" s="47"/>
     </row>
-    <row r="8" spans="1:32" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="210.75" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>34</v>
       </c>
@@ -2031,7 +2022,7 @@
       <c r="AE8" s="47"/>
       <c r="AF8" s="47"/>
     </row>
-    <row r="9" spans="1:32" ht="160" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="167.25">
       <c r="A9" s="39" t="s">
         <v>34</v>
       </c>
@@ -2097,7 +2088,7 @@
       <c r="AE9" s="47"/>
       <c r="AF9" s="47"/>
     </row>
-    <row r="10" spans="1:32" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="142.5" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>34</v>
       </c>
@@ -2161,7 +2152,7 @@
       <c r="AE10" s="47"/>
       <c r="AF10" s="47"/>
     </row>
-    <row r="11" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="120" customHeight="1">
       <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
@@ -2225,7 +2216,7 @@
       <c r="AE11" s="47"/>
       <c r="AF11" s="47"/>
     </row>
-    <row r="12" spans="1:32" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="174.75" customHeight="1">
       <c r="A12" s="39" t="s">
         <v>34</v>
       </c>
@@ -2291,7 +2282,7 @@
       <c r="AE12" s="47"/>
       <c r="AF12" s="47"/>
     </row>
-    <row r="13" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="60.75">
       <c r="A13" s="39" t="s">
         <v>34</v>
       </c>
@@ -2357,7 +2348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="60.75">
       <c r="A14" s="39" t="s">
         <v>34</v>
       </c>
@@ -2419,7 +2410,7 @@
       <c r="AE14" s="47"/>
       <c r="AF14" s="47"/>
     </row>
-    <row r="15" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="60.75">
       <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
@@ -2481,7 +2472,7 @@
       <c r="AE15" s="47"/>
       <c r="AF15" s="47"/>
     </row>
-    <row r="16" spans="1:32" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="147.75" customHeight="1">
       <c r="A16" s="39" t="s">
         <v>34</v>
       </c>
@@ -2545,7 +2536,7 @@
       <c r="AE16" s="47"/>
       <c r="AF16" s="47"/>
     </row>
-    <row r="17" spans="1:32" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="147.75" customHeight="1">
       <c r="A17" s="39" t="s">
         <v>34</v>
       </c>
@@ -2619,7 +2610,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="107.25" customHeight="1">
       <c r="A18" s="39" t="s">
         <v>34</v>
       </c>
@@ -2681,7 +2672,7 @@
       <c r="AE18" s="47"/>
       <c r="AF18" s="47"/>
     </row>
-    <row r="19" spans="1:32" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="116.25" customHeight="1">
       <c r="A19" s="39" t="s">
         <v>34</v>
       </c>
@@ -2743,7 +2734,7 @@
       <c r="AE19" s="47"/>
       <c r="AF19" s="47"/>
     </row>
-    <row r="20" spans="1:32" ht="112" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="121.5">
       <c r="A20" s="39" t="s">
         <v>34</v>
       </c>
@@ -2805,7 +2796,7 @@
       <c r="AE20" s="47"/>
       <c r="AF20" s="47"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32">
       <c r="A21" s="4"/>
       <c r="B21" s="14"/>
       <c r="C21" s="4"/>
@@ -2820,7 +2811,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2835,7 +2826,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2850,7 +2841,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2865,7 +2856,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2880,7 +2871,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2895,7 +2886,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2910,7 +2901,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2925,7 +2916,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2940,7 +2931,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3021,25 +3012,25 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="5"/>
-    <col min="2" max="3" width="20.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="3" width="20.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="31" style="5" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="30"/>
-    <col min="11" max="12" width="9.1640625" style="5"/>
-    <col min="13" max="13" width="53.83203125" style="5" customWidth="1"/>
-    <col min="14" max="16" width="9.1640625" style="5"/>
-    <col min="17" max="17" width="27.5" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9.1640625" style="5"/>
+    <col min="9" max="9" width="32.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="30"/>
+    <col min="11" max="12" width="9.140625" style="5"/>
+    <col min="13" max="13" width="53.85546875" style="5" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="5"/>
+    <col min="17" max="17" width="27.5703125" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +3088,7 @@
       </c>
       <c r="T1" s="36"/>
     </row>
-    <row r="2" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="30.75">
       <c r="A2" s="6">
         <v>113007</v>
       </c>
@@ -3130,7 +3121,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="256" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="275.25">
       <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
@@ -3173,7 +3164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="106.5">
       <c r="A4" s="21" t="s">
         <v>34</v>
       </c>
@@ -3216,7 +3207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="152.25">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
@@ -3257,7 +3248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="208" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="213">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -3298,7 +3289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="229.5">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -3339,7 +3330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="288" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="321">
       <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
@@ -3380,7 +3371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="183">
       <c r="A9" s="13" t="s">
         <v>34</v>
       </c>
@@ -3425,7 +3416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="198">
       <c r="A10" s="13" t="s">
         <v>34</v>
       </c>
@@ -3468,7 +3459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="167.25">
       <c r="A11" s="13" t="s">
         <v>34</v>
       </c>
@@ -3514,7 +3505,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="244.5">
       <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
@@ -3562,7 +3553,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="60.75">
       <c r="A13" s="13" t="s">
         <v>34</v>
       </c>
@@ -3611,7 +3602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="91.5">
       <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
@@ -3654,7 +3645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="106.5">
       <c r="A15" s="13" t="s">
         <v>34</v>
       </c>
@@ -3697,7 +3688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="144" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="152.25">
       <c r="A16" s="13" t="s">
         <v>34</v>
       </c>
@@ -3742,7 +3733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="192" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="213">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3791,7 +3782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="128" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="137.25">
       <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
@@ -3834,7 +3825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="91.5">
       <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
@@ -3879,7 +3870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="121.5">
       <c r="A20" s="13" t="s">
         <v>34</v>
       </c>
@@ -3922,7 +3913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3937,7 +3928,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3952,7 +3943,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3967,7 +3958,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3982,7 +3973,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3997,7 +3988,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4012,7 +4003,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4027,7 +4018,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4042,7 +4033,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4057,7 +4048,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4105,21 +4096,21 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="5"/>
-    <col min="2" max="4" width="20.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="40.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="4" width="20.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="31" style="5" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="30"/>
-    <col min="12" max="16384" width="9.1640625" style="5"/>
+    <col min="10" max="10" width="32.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="30"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4150,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="30.75">
       <c r="A2" s="6">
         <v>113007</v>
       </c>
@@ -4193,7 +4184,7 @@
       <c r="M2" s="35"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="256" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="275.25">
       <c r="A3" s="13"/>
       <c r="C3" s="14" t="s">
         <v>25</v>
@@ -4226,7 +4217,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="106.5">
       <c r="A4" s="21"/>
       <c r="C4" s="22" t="s">
         <v>35</v>
@@ -4261,7 +4252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="152.25">
       <c r="A5" s="13"/>
       <c r="C5" s="14" t="s">
         <v>41</v>
@@ -4294,7 +4285,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="28"/>
     </row>
-    <row r="6" spans="1:14" ht="208" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="213">
       <c r="A6" s="13"/>
       <c r="C6" s="14" t="s">
         <v>47</v>
@@ -4327,7 +4318,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="192" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="229.5">
       <c r="A7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>51</v>
@@ -4360,7 +4351,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="288" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="321">
       <c r="A8" s="13"/>
       <c r="C8" s="14" t="s">
         <v>55</v>
@@ -4393,7 +4384,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="183">
       <c r="A9" s="13"/>
       <c r="C9" s="14" t="s">
         <v>60</v>
@@ -4426,7 +4417,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="176" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="198">
       <c r="A10" s="13"/>
       <c r="C10" s="14" t="s">
         <v>66</v>
@@ -4459,7 +4450,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="160" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="167.25">
       <c r="A11" s="13"/>
       <c r="C11" s="14" t="s">
         <v>70</v>
@@ -4492,7 +4483,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="224" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="244.5">
       <c r="A12" s="13"/>
       <c r="C12" s="14" t="s">
         <v>75</v>
@@ -4525,7 +4516,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="60.75">
       <c r="A13" s="13"/>
       <c r="C13" s="14" t="s">
         <v>79</v>
@@ -4558,7 +4549,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="91.5">
       <c r="A14" s="13"/>
       <c r="C14" s="14" t="s">
         <v>85</v>
@@ -4591,7 +4582,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="106.5">
       <c r="A15" s="13"/>
       <c r="C15" s="14" t="s">
         <v>88</v>
@@ -4624,7 +4615,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="152.25">
       <c r="A16" s="13"/>
       <c r="C16" s="14" t="s">
         <v>92</v>
@@ -4657,7 +4648,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="192" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="213">
       <c r="A17" s="13"/>
       <c r="C17" s="14" t="s">
         <v>96</v>
@@ -4690,7 +4681,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="137.25">
       <c r="A18" s="13"/>
       <c r="C18" s="14" t="s">
         <v>102</v>
@@ -4723,7 +4714,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="91.5">
       <c r="A19" s="13"/>
       <c r="C19" s="14" t="s">
         <v>105</v>
@@ -4756,7 +4747,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="121.5">
       <c r="A20" s="13"/>
       <c r="C20" s="14" t="s">
         <v>109</v>
@@ -4789,7 +4780,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4805,7 +4796,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -4821,7 +4812,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -4837,7 +4828,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -4853,7 +4844,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -4869,7 +4860,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4885,7 +4876,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4901,7 +4892,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4917,7 +4908,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4933,7 +4924,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4965,12 +4956,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="52.6640625" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
@@ -4978,7 +4969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="45.75">
       <c r="A2" s="69" t="s">
         <v>42</v>
       </c>
@@ -4986,7 +4977,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="69" t="s">
         <v>27</v>
       </c>
@@ -4994,7 +4985,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="69" t="s">
         <v>155</v>
       </c>
@@ -5002,7 +4993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="69" t="s">
         <v>157</v>
       </c>
@@ -5010,7 +5001,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="69" t="s">
         <v>56</v>
       </c>
@@ -5018,7 +5009,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="45.75">
       <c r="A7" s="69" t="s">
         <v>160</v>
       </c>
@@ -5026,7 +5017,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="45.75">
       <c r="A8" s="69" t="s">
         <v>36</v>
       </c>
@@ -5034,7 +5025,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="45.75">
       <c r="A9" s="69" t="s">
         <v>163</v>
       </c>
@@ -5042,7 +5033,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="69" t="s">
         <v>165</v>
       </c>
@@ -5050,7 +5041,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="30.75">
       <c r="A11" s="69" t="s">
         <v>167</v>
       </c>
@@ -5058,7 +5049,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="69" t="s">
         <v>48</v>
       </c>
@@ -5066,7 +5057,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="69" t="s">
         <v>124</v>
       </c>
@@ -5074,7 +5065,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="69" t="s">
         <v>171</v>
       </c>
@@ -5082,7 +5073,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="30.75">
       <c r="A15" s="69" t="s">
         <v>173</v>
       </c>
@@ -5090,7 +5081,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="30.75">
       <c r="A16" s="69" t="s">
         <v>175</v>
       </c>
@@ -5098,7 +5089,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="30.75">
       <c r="A17" s="69" t="s">
         <v>89</v>
       </c>
@@ -5106,7 +5097,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="30.75">
       <c r="A18" s="69" t="s">
         <v>76</v>
       </c>
@@ -5114,7 +5105,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="69" t="s">
         <v>179</v>
       </c>
@@ -5122,7 +5113,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="69" t="s">
         <v>181</v>
       </c>
@@ -5130,7 +5121,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="45.75">
       <c r="A21" s="69" t="s">
         <v>19</v>
       </c>
@@ -5138,7 +5129,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="69" t="s">
         <v>184</v>
       </c>
@@ -5194,8 +5185,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -5220,6 +5211,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5299,6 +5291,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5443,39 +5440,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4BFD9EE-4F0D-4647-B161-5B4B1F915071}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4BFD9EE-4F0D-4647-B161-5B4B1F915071}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B901AB7-47B7-429F-83A5-F7895DD912EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B901AB7-47B7-429F-83A5-F7895DD912EA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5A87125-55F7-489C-8135-9EF2D259E2AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7265552-959A-4144-9CB2-24F209D17DE9}"/>
 </file>